--- a/RNN_Stopping_Grid/Data2/Optimised_Networks/Predictions/1HL Manual/1_15_30_0.0009_8_manual_online 9.xlsx
+++ b/RNN_Stopping_Grid/Data2/Optimised_Networks/Predictions/1HL Manual/1_15_30_0.0009_8_manual_online 9.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mostafizor\Documents\Bioprocess Simulation using Machine Learning\RNN_Stopping_Grid\Data2\Optimised_Networks\Predictions\1HL Manual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1782F0B-03B2-41F5-B347-70457D9AF31D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FEAC6A-7E69-43B1-A90C-C68A25B89F5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7917,8 +7917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
-      <selection activeCell="AG44" sqref="AG44"/>
+    <sheetView tabSelected="1" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
+      <selection activeCell="AE42" sqref="AE42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9274,28 +9274,28 @@
         <v>5</v>
       </c>
       <c r="S43">
-        <f>( SUM(S31:S41)/12)*100</f>
-        <v>3.0056308332585147</v>
+        <f>( SUM(S31:S42)/12)*100</f>
+        <v>3.1035083914333046</v>
       </c>
       <c r="T43">
-        <f>( SUM(T31:T41)/12)*100</f>
-        <v>3.4947488592746425</v>
+        <f>( SUM(T31:T42)/12)*100</f>
+        <v>3.7100718488548261</v>
       </c>
       <c r="U43">
-        <f>( SUM(U31:U41)/12)*100</f>
-        <v>2.8371376385161033</v>
+        <f>( SUM(U31:U42)/12)*100</f>
+        <v>3.1054542170715198</v>
       </c>
       <c r="X43">
-        <f t="shared" ref="X43:Z43" si="6">( SUM(X31:X41)/12)*100</f>
-        <v>2.8760565137389427</v>
+        <f>( SUM(X31:X42)/12)*100</f>
+        <v>3.1698979161758727</v>
       </c>
       <c r="Y43">
-        <f t="shared" si="6"/>
-        <v>8.5911805716140606</v>
+        <f>( SUM(Y31:Y42)/12)*100</f>
+        <v>8.7578289966369613</v>
       </c>
       <c r="Z43">
-        <f t="shared" si="6"/>
-        <v>4.0538293190838948</v>
+        <f>( SUM(Z31:Z42)/12)*100</f>
+        <v>4.1274176091677006</v>
       </c>
     </row>
   </sheetData>
